--- a/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\PDiBCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NE\endo-learn\PDiBCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7390D6EA-97F6-4AA3-ACAE-4B5301F6F025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B108FD4-AF96-475D-AF80-E68E2F9A7E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Source:</t>
   </si>
@@ -49,10 +49,13 @@
     <t>BNEF</t>
   </si>
   <si>
-    <t>A Behind the Scenes Take on Lithium-ion Battery Prices</t>
-  </si>
-  <si>
-    <t>https://about.bnef.com/blog/behind-scenes-take-lithium-ion-battery-prices/</t>
+    <t>https://about.bnef.com/electric-vehicle-outlook/</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Outlook 2024</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,20 +419,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,26 +446,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -472,7 +478,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
+++ b/InputData/endo-learn/PDiBCpDoC/Perc Decline in Battery Cost per Doubling of Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NE\endo-learn\PDiBCpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\PDiBCpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B108FD4-AF96-475D-AF80-E68E2F9A7E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B3602D-03B3-464C-AAF2-F03D8F7520A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Source:</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Electric Vehicle Outlook 2024</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
   </si>
 </sst>
 </file>
@@ -107,14 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,12 +427,6 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4">
-        <v>45531</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
